--- a/SALES TAX DETAIL VAT (Autosaved).xlsx
+++ b/SALES TAX DETAIL VAT (Autosaved).xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="714">
   <si>
     <t>SURYA PAINT AND HARDWARE</t>
   </si>
@@ -2183,10 +2183,13 @@
     <t>lalan@jha</t>
   </si>
   <si>
-    <t>indra deo sah</t>
-  </si>
-  <si>
     <t>password@086</t>
+  </si>
+  <si>
+    <t>anupam agency</t>
+  </si>
+  <si>
+    <t>Guria kumari</t>
   </si>
 </sst>
 </file>
@@ -3294,26 +3297,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3331,6 +3316,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4568,7 +4571,7 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,12 +4947,12 @@
       <c r="J11" s="14">
         <v>10309580081</v>
       </c>
-      <c r="L11" s="173" t="s">
+      <c r="L11" s="172" t="s">
         <v>158</v>
       </c>
       <c r="M11" s="166"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="180"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="174"/>
       <c r="P11" t="s">
         <v>139</v>
       </c>
@@ -4982,12 +4985,12 @@
       <c r="J12" s="14">
         <v>10315538084</v>
       </c>
-      <c r="L12" s="181" t="s">
+      <c r="L12" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="M12" s="182"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="184"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="178"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -5156,8 +5159,8 @@
       <c r="L17" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="176"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="181"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5188,8 +5191,8 @@
         <f>L20</f>
         <v>lalanKUMAR123@</v>
       </c>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="178"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="183"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -5308,8 +5311,8 @@
       </c>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="176"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="181"/>
       <c r="T21" s="17"/>
       <c r="U21" s="18"/>
     </row>
@@ -5377,10 +5380,10 @@
       <c r="K26" s="38"/>
       <c r="L26" s="29"/>
       <c r="M26" s="41"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="178"/>
+      <c r="N26" s="179"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="183"/>
       <c r="T26" s="170"/>
       <c r="U26" s="171"/>
     </row>
@@ -5412,7 +5415,7 @@
       <c r="J27" s="14">
         <v>10386822071</v>
       </c>
-      <c r="L27" s="173" t="s">
+      <c r="L27" s="172" t="s">
         <v>158</v>
       </c>
       <c r="M27" s="166"/>
@@ -5577,40 +5580,51 @@
       <c r="L31" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
+      <c r="O31" s="179"/>
+      <c r="P31" s="179"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
       <c r="C32" s="42" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J32" s="14">
         <v>10340278086</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="O32" s="184"/>
+      <c r="P32" s="184"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C35" s="168"/>
       <c r="D35" s="169"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C36" s="170"/>
       <c r="D36" s="171"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J43" s="46">
         <v>86215</v>
       </c>
@@ -5622,12 +5636,12 @@
         <v>11639.025000000001</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L44" s="24">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K47">
         <v>86215</v>
       </c>
@@ -5659,12 +5673,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="X29:Y29"/>
     <mergeCell ref="R30:S30"/>
@@ -5676,11 +5689,12 @@
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="T26:U26"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -12234,22 +12248,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
@@ -12259,6 +12257,22 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="O22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12934,6 +12948,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3:S3"/>
@@ -12943,14 +12965,6 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
   </mergeCells>
   <pageMargins left="0.55000000000000004" right="0.16" top="0.2" bottom="0.23" header="0.2" footer="0.2"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -13832,6 +13846,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3:S3"/>
@@ -13841,14 +13863,6 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.16" top="0.25" bottom="0.37" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -14632,13 +14646,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3:S3"/>
@@ -14648,6 +14655,13 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.16" top="0.32" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="0" r:id="rId1"/>
